--- a/cisco_ise_spreadsheet.xlsx
+++ b/cisco_ise_spreadsheet.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p1330111\Projects\cisco_ise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p1330111\Projects\cisco-ise-authz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF19B9-9746-444E-93D9-044036BD7068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA5E56B-BA52-4332-A91B-36568F1D599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7tNIt/yYNti18T2xfNjs4zrF+DsGFX+zteDicbOEWeecrp/8Hn172bEltXOoec4E3LohexIMF7YbduoL5P551w==" workbookSaltValue="YJ+4+6LBJfTL8Yr2521/Pw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Authz_Profile" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Rule_Name</t>
   </si>
   <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>Profile_Name</t>
   </si>
   <si>
@@ -100,44 +97,152 @@
     <t>Username2</t>
   </si>
   <si>
-    <t>pilotuser1@RSA</t>
-  </si>
-  <si>
-    <t>pilotuser1@soe.sgnet.gov.sg</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>PILOT-USER1</t>
-  </si>
-  <si>
-    <t>PILOT-USER2</t>
-  </si>
-  <si>
-    <t>PILOT-USER3</t>
-  </si>
-  <si>
-    <t>External_Group_Name</t>
-  </si>
-  <si>
-    <t>External Group Name will be append in this format CN=Rule_Name,CN=External_Group_Name,CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>pilotuser3@RSA</t>
-  </si>
-  <si>
-    <t>pilotuser2@soe.sgnet.gov.sg</t>
+    <t>for static ip</t>
+  </si>
+  <si>
+    <t>for normal vpn group</t>
+  </si>
+  <si>
+    <t>PILOT-VPN-01-Profile</t>
+  </si>
+  <si>
+    <t>PILOT-VPN-02-Profile</t>
+  </si>
+  <si>
+    <t>PILOT-VPN-03-Profile</t>
+  </si>
+  <si>
+    <t>PILOT-VPN-01-Rule</t>
+  </si>
+  <si>
+    <t>PILOT-VPN-02-Rule</t>
+  </si>
+  <si>
+    <t>PILOT-VPN-03-Rule</t>
+  </si>
+  <si>
+    <t>Rule Name (without "-Rule") will be appended to the DN</t>
+  </si>
+  <si>
+    <t>CN=Groups_GoMAX,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+  </si>
+  <si>
+    <t>IOC-VPN-01-Profile</t>
+  </si>
+  <si>
+    <t>IOC-VPN-02-Profile</t>
+  </si>
+  <si>
+    <t>IOC-VPN-03-Profile</t>
+  </si>
+  <si>
+    <t>IOC-VPN-01</t>
+  </si>
+  <si>
+    <t>IOC-VPN-02</t>
+  </si>
+  <si>
+    <t>IOC-VPN-03</t>
+  </si>
+  <si>
+    <t>Tech Refresh</t>
+  </si>
+  <si>
+    <t>RSA_LDAPS</t>
+  </si>
+  <si>
+    <t>CN=Groups_RSA,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+  </si>
+  <si>
+    <t>IOC-VPN-01-Rule</t>
+  </si>
+  <si>
+    <t>IOC-VPN-02-Rule</t>
+  </si>
+  <si>
+    <t>IOC-VPN-03-Rule</t>
+  </si>
+  <si>
+    <t>ioc.test.com</t>
+  </si>
+  <si>
+    <t>External_Group_Name1</t>
+  </si>
+  <si>
+    <t>External_Group_Name2</t>
+  </si>
+  <si>
+    <t>SmartCard_LDAPS</t>
+  </si>
+  <si>
+    <t>CN=Groups_SmartCard,CN=Groups_SGVPN,CN=sgvpn,DC=sgvpn,DC=sgnet,DC=gov,DC=sg</t>
+  </si>
+  <si>
+    <t>Distinguished_Name1</t>
+  </si>
+  <si>
+    <t>Distinguished_Name2</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>GoMAX</t>
+  </si>
+  <si>
+    <t>RSA_SC</t>
+  </si>
+  <si>
+    <t>USER1-Rule</t>
+  </si>
+  <si>
+    <t>USER2-Rule</t>
+  </si>
+  <si>
+    <t>USER3-Rule</t>
+  </si>
+  <si>
+    <t>user1@RSA</t>
+  </si>
+  <si>
+    <t>user3@RSA</t>
+  </si>
+  <si>
+    <t>user1@soe.sgnet.gov.sg</t>
+  </si>
+  <si>
+    <t>user2@soe.sgnet.gov.sg</t>
+  </si>
+  <si>
+    <t>USER1-Profile</t>
+  </si>
+  <si>
+    <t>USER2-Profile</t>
+  </si>
+  <si>
+    <t>USER3-Profile</t>
+  </si>
+  <si>
+    <t>USER1</t>
+  </si>
+  <si>
+    <t>USER2</t>
+  </si>
+  <si>
+    <t>USER3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +267,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +328,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -555,16 +668,17 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="5" width="16.5546875" customWidth="1"/>
     <col min="6" max="7" width="23.44140625" customWidth="1"/>
     <col min="8" max="8" width="19.77734375" customWidth="1"/>
@@ -572,7 +686,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -601,82 +715,88 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -690,17 +810,19 @@
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -709,39 +831,122 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -751,27 +956,30 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="35.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="77" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -780,174 +988,378 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{01643F72-50E2-4532-9FC0-ABEC5BE7FEF5}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{F7CE5876-9083-4F15-B9C4-E33E0E944A84}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{92946693-7427-488F-A921-F8E1A3180CCF}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{01643F72-50E2-4532-9FC0-ABEC5BE7FEF5}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{F7CE5876-9083-4F15-B9C4-E33E0E944A84}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{92946693-7427-488F-A921-F8E1A3180CCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
